--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Cd80-Cd274.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Cd80-Cd274.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.68515092284641</v>
+        <v>21.557693</v>
       </c>
       <c r="H2">
-        <v>2.68515092284641</v>
+        <v>64.673079</v>
       </c>
       <c r="I2">
-        <v>0.1459997124098187</v>
+        <v>0.5505707555812251</v>
       </c>
       <c r="J2">
-        <v>0.1459997124098187</v>
+        <v>0.5505707555812251</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>15.1211634156765</v>
+        <v>15.438552</v>
       </c>
       <c r="N2">
-        <v>15.1211634156765</v>
+        <v>46.315656</v>
       </c>
       <c r="O2">
-        <v>0.4836776239188549</v>
+        <v>0.4516083650784052</v>
       </c>
       <c r="P2">
-        <v>0.4836776239188549</v>
+        <v>0.4516083650784052</v>
       </c>
       <c r="Q2">
-        <v>40.60260590011513</v>
+        <v>332.819564380536</v>
       </c>
       <c r="R2">
-        <v>40.60260590011513</v>
+        <v>2995.376079424824</v>
       </c>
       <c r="S2">
-        <v>0.07061679399121729</v>
+        <v>0.2486423587880194</v>
       </c>
       <c r="T2">
-        <v>0.07061679399121729</v>
+        <v>0.2486423587880193</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.68515092284641</v>
+        <v>21.557693</v>
       </c>
       <c r="H3">
-        <v>2.68515092284641</v>
+        <v>64.673079</v>
       </c>
       <c r="I3">
-        <v>0.1459997124098187</v>
+        <v>0.5505707555812251</v>
       </c>
       <c r="J3">
-        <v>0.1459997124098187</v>
+        <v>0.5505707555812251</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.62655495943328</v>
+        <v>1.632438333333333</v>
       </c>
       <c r="N3">
-        <v>1.62655495943328</v>
+        <v>4.897315</v>
       </c>
       <c r="O3">
-        <v>0.05202828752822662</v>
+        <v>0.04775206941738987</v>
       </c>
       <c r="P3">
-        <v>0.05202828752822662</v>
+        <v>0.04775206941738987</v>
       </c>
       <c r="Q3">
-        <v>4.367545550382677</v>
+        <v>35.19160443143166</v>
       </c>
       <c r="R3">
-        <v>4.367545550382677</v>
+        <v>316.724439882885</v>
       </c>
       <c r="S3">
-        <v>0.007596115016296446</v>
+        <v>0.02629089293969946</v>
       </c>
       <c r="T3">
-        <v>0.007596115016296446</v>
+        <v>0.02629089293969946</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.68515092284641</v>
+        <v>21.557693</v>
       </c>
       <c r="H4">
-        <v>2.68515092284641</v>
+        <v>64.673079</v>
       </c>
       <c r="I4">
-        <v>0.1459997124098187</v>
+        <v>0.5505707555812251</v>
       </c>
       <c r="J4">
-        <v>0.1459997124098187</v>
+        <v>0.5505707555812251</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>14.1641717130199</v>
+        <v>16.727748</v>
       </c>
       <c r="N4">
-        <v>14.1641717130199</v>
+        <v>50.183244</v>
       </c>
       <c r="O4">
-        <v>0.4530665221056751</v>
+        <v>0.4893199132744809</v>
       </c>
       <c r="P4">
-        <v>0.4530665221056751</v>
+        <v>0.4893199132744808</v>
       </c>
       <c r="Q4">
-        <v>38.0329387465704</v>
+        <v>360.611655965364</v>
       </c>
       <c r="R4">
-        <v>38.0329387465704</v>
+        <v>3245.504903688276</v>
       </c>
       <c r="S4">
-        <v>0.06614758192994535</v>
+        <v>0.2694052343724705</v>
       </c>
       <c r="T4">
-        <v>0.06614758192994535</v>
+        <v>0.2694052343724705</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.68515092284641</v>
+        <v>21.557693</v>
       </c>
       <c r="H5">
-        <v>2.68515092284641</v>
+        <v>64.673079</v>
       </c>
       <c r="I5">
-        <v>0.1459997124098187</v>
+        <v>0.5505707555812251</v>
       </c>
       <c r="J5">
-        <v>0.1459997124098187</v>
+        <v>0.5505707555812251</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.351006245923866</v>
+        <v>0.3869703333333334</v>
       </c>
       <c r="N5">
-        <v>0.351006245923866</v>
+        <v>1.160911</v>
       </c>
       <c r="O5">
-        <v>0.01122756644724333</v>
+        <v>0.01131965222972415</v>
       </c>
       <c r="P5">
-        <v>0.01122756644724333</v>
+        <v>0.01131965222972415</v>
       </c>
       <c r="Q5">
-        <v>0.9425047451673227</v>
+        <v>8.342187646107668</v>
       </c>
       <c r="R5">
-        <v>0.9425047451673227</v>
+        <v>75.079688814969</v>
       </c>
       <c r="S5">
-        <v>0.001639221472359656</v>
+        <v>0.006232269481035922</v>
       </c>
       <c r="T5">
-        <v>0.001639221472359656</v>
+        <v>0.006232269481035922</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.981759815858</v>
+        <v>3.981869333333333</v>
       </c>
       <c r="H6">
-        <v>3.981759815858</v>
+        <v>11.945608</v>
       </c>
       <c r="I6">
-        <v>0.2165002283685389</v>
+        <v>0.1016945926207894</v>
       </c>
       <c r="J6">
-        <v>0.2165002283685389</v>
+        <v>0.1016945926207894</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>15.1211634156765</v>
+        <v>15.438552</v>
       </c>
       <c r="N6">
-        <v>15.1211634156765</v>
+        <v>46.315656</v>
       </c>
       <c r="O6">
-        <v>0.4836776239188549</v>
+        <v>0.4516083650784052</v>
       </c>
       <c r="P6">
-        <v>0.4836776239188549</v>
+        <v>0.4516083650784052</v>
       </c>
       <c r="Q6">
-        <v>60.20884085756279</v>
+        <v>61.474296759872</v>
       </c>
       <c r="R6">
-        <v>60.20884085756279</v>
+        <v>553.2686708388479</v>
       </c>
       <c r="S6">
-        <v>0.1047163160351844</v>
+        <v>0.04592612871078914</v>
       </c>
       <c r="T6">
-        <v>0.1047163160351844</v>
+        <v>0.04592612871078913</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>3.981759815858</v>
+        <v>3.981869333333333</v>
       </c>
       <c r="H7">
-        <v>3.981759815858</v>
+        <v>11.945608</v>
       </c>
       <c r="I7">
-        <v>0.2165002283685389</v>
+        <v>0.1016945926207894</v>
       </c>
       <c r="J7">
-        <v>0.2165002283685389</v>
+        <v>0.1016945926207894</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.62655495943328</v>
+        <v>1.632438333333333</v>
       </c>
       <c r="N7">
-        <v>1.62655495943328</v>
+        <v>4.897315</v>
       </c>
       <c r="O7">
-        <v>0.05202828752822662</v>
+        <v>0.04775206941738987</v>
       </c>
       <c r="P7">
-        <v>0.05202828752822662</v>
+        <v>0.04775206941738987</v>
       </c>
       <c r="Q7">
-        <v>6.476551175755974</v>
+        <v>6.500156138057777</v>
       </c>
       <c r="R7">
-        <v>6.476551175755974</v>
+        <v>58.50140524252</v>
       </c>
       <c r="S7">
-        <v>0.01126413613148507</v>
+        <v>0.004856127246201118</v>
       </c>
       <c r="T7">
-        <v>0.01126413613148507</v>
+        <v>0.004856127246201118</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3.981759815858</v>
+        <v>3.981869333333333</v>
       </c>
       <c r="H8">
-        <v>3.981759815858</v>
+        <v>11.945608</v>
       </c>
       <c r="I8">
-        <v>0.2165002283685389</v>
+        <v>0.1016945926207894</v>
       </c>
       <c r="J8">
-        <v>0.2165002283685389</v>
+        <v>0.1016945926207894</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>14.1641717130199</v>
+        <v>16.727748</v>
       </c>
       <c r="N8">
-        <v>14.1641717130199</v>
+        <v>50.183244</v>
       </c>
       <c r="O8">
-        <v>0.4530665221056751</v>
+        <v>0.4893199132744809</v>
       </c>
       <c r="P8">
-        <v>0.4530665221056751</v>
+        <v>0.4893199132744808</v>
       </c>
       <c r="Q8">
-        <v>56.39832975181521</v>
+        <v>66.60770677692801</v>
       </c>
       <c r="R8">
-        <v>56.39832975181521</v>
+        <v>599.469360992352</v>
       </c>
       <c r="S8">
-        <v>0.09808900550201835</v>
+        <v>0.04976118924168831</v>
       </c>
       <c r="T8">
-        <v>0.09808900550201835</v>
+        <v>0.04976118924168831</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3.981759815858</v>
+        <v>3.981869333333333</v>
       </c>
       <c r="H9">
-        <v>3.981759815858</v>
+        <v>11.945608</v>
       </c>
       <c r="I9">
-        <v>0.2165002283685389</v>
+        <v>0.1016945926207894</v>
       </c>
       <c r="J9">
-        <v>0.2165002283685389</v>
+        <v>0.1016945926207894</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.351006245923866</v>
+        <v>0.3869703333333334</v>
       </c>
       <c r="N9">
-        <v>0.351006245923866</v>
+        <v>1.160911</v>
       </c>
       <c r="O9">
-        <v>0.01122756644724333</v>
+        <v>0.01131965222972415</v>
       </c>
       <c r="P9">
-        <v>0.01122756644724333</v>
+        <v>0.01131965222972415</v>
       </c>
       <c r="Q9">
-        <v>1.39762256513482</v>
+        <v>1.540865303209778</v>
       </c>
       <c r="R9">
-        <v>1.39762256513482</v>
+        <v>13.867787728888</v>
       </c>
       <c r="S9">
-        <v>0.002430770699851125</v>
+        <v>0.001151147422110807</v>
       </c>
       <c r="T9">
-        <v>0.002430770699851125</v>
+        <v>0.001151147422110807</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>10.1522297713055</v>
+        <v>12.00696933333334</v>
       </c>
       <c r="H10">
-        <v>10.1522297713055</v>
+        <v>36.02090800000001</v>
       </c>
       <c r="I10">
-        <v>0.5520071942018678</v>
+        <v>0.3066509100994217</v>
       </c>
       <c r="J10">
-        <v>0.5520071942018678</v>
+        <v>0.3066509100994217</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>15.1211634156765</v>
+        <v>15.438552</v>
       </c>
       <c r="N10">
-        <v>15.1211634156765</v>
+        <v>46.315656</v>
       </c>
       <c r="O10">
-        <v>0.4836776239188549</v>
+        <v>0.4516083650784052</v>
       </c>
       <c r="P10">
-        <v>0.4836776239188549</v>
+        <v>0.4516083650784052</v>
       </c>
       <c r="Q10">
-        <v>153.5135254054065</v>
+        <v>185.370220415072</v>
       </c>
       <c r="R10">
-        <v>153.5135254054065</v>
+        <v>1668.331983735648</v>
       </c>
       <c r="S10">
-        <v>0.2669935280776733</v>
+        <v>0.1384861161598049</v>
       </c>
       <c r="T10">
-        <v>0.2669935280776733</v>
+        <v>0.1384861161598049</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>10.1522297713055</v>
+        <v>12.00696933333334</v>
       </c>
       <c r="H11">
-        <v>10.1522297713055</v>
+        <v>36.02090800000001</v>
       </c>
       <c r="I11">
-        <v>0.5520071942018678</v>
+        <v>0.3066509100994217</v>
       </c>
       <c r="J11">
-        <v>0.5520071942018678</v>
+        <v>0.3066509100994217</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.62655495943328</v>
+        <v>1.632438333333333</v>
       </c>
       <c r="N11">
-        <v>1.62655495943328</v>
+        <v>4.897315</v>
       </c>
       <c r="O11">
-        <v>0.05202828752822662</v>
+        <v>0.04775206941738987</v>
       </c>
       <c r="P11">
-        <v>0.05202828752822662</v>
+        <v>0.04775206941738987</v>
       </c>
       <c r="Q11">
-        <v>16.51315968382315</v>
+        <v>19.60063700689111</v>
       </c>
       <c r="R11">
-        <v>16.51315968382315</v>
+        <v>176.40573306202</v>
       </c>
       <c r="S11">
-        <v>0.02871998901758441</v>
+        <v>0.01464321554597337</v>
       </c>
       <c r="T11">
-        <v>0.02871998901758441</v>
+        <v>0.01464321554597337</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>10.1522297713055</v>
+        <v>12.00696933333334</v>
       </c>
       <c r="H12">
-        <v>10.1522297713055</v>
+        <v>36.02090800000001</v>
       </c>
       <c r="I12">
-        <v>0.5520071942018678</v>
+        <v>0.3066509100994217</v>
       </c>
       <c r="J12">
-        <v>0.5520071942018678</v>
+        <v>0.3066509100994217</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>14.1641717130199</v>
+        <v>16.727748</v>
       </c>
       <c r="N12">
-        <v>14.1641717130199</v>
+        <v>50.183244</v>
       </c>
       <c r="O12">
-        <v>0.4530665221056751</v>
+        <v>0.4893199132744809</v>
       </c>
       <c r="P12">
-        <v>0.4530665221056751</v>
+        <v>0.4893199132744808</v>
       </c>
       <c r="Q12">
-        <v>143.7979257508038</v>
+        <v>200.8495572517281</v>
       </c>
       <c r="R12">
-        <v>143.7979257508038</v>
+        <v>1807.646015265552</v>
       </c>
       <c r="S12">
-        <v>0.2500959796543523</v>
+        <v>0.1500503967353897</v>
       </c>
       <c r="T12">
-        <v>0.2500959796543523</v>
+        <v>0.1500503967353897</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>10.1522297713055</v>
+        <v>12.00696933333334</v>
       </c>
       <c r="H13">
-        <v>10.1522297713055</v>
+        <v>36.02090800000001</v>
       </c>
       <c r="I13">
-        <v>0.5520071942018678</v>
+        <v>0.3066509100994217</v>
       </c>
       <c r="J13">
-        <v>0.5520071942018678</v>
+        <v>0.3066509100994217</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.351006245923866</v>
+        <v>0.3869703333333334</v>
       </c>
       <c r="N13">
-        <v>0.351006245923866</v>
+        <v>1.160911</v>
       </c>
       <c r="O13">
-        <v>0.01122756644724333</v>
+        <v>0.01131965222972415</v>
       </c>
       <c r="P13">
-        <v>0.01122756644724333</v>
+        <v>0.01131965222972415</v>
       </c>
       <c r="Q13">
-        <v>3.563496059782452</v>
+        <v>4.646340925243113</v>
       </c>
       <c r="R13">
-        <v>3.563496059782452</v>
+        <v>41.81706832718801</v>
       </c>
       <c r="S13">
-        <v>0.006197697452257822</v>
+        <v>0.003471181658253858</v>
       </c>
       <c r="T13">
-        <v>0.006197697452257822</v>
+        <v>0.003471181658253858</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.57234039448144</v>
+        <v>1.608641</v>
       </c>
       <c r="H14">
-        <v>1.57234039448144</v>
+        <v>4.825923</v>
       </c>
       <c r="I14">
-        <v>0.08549286501977454</v>
+        <v>0.04108374169856382</v>
       </c>
       <c r="J14">
-        <v>0.08549286501977454</v>
+        <v>0.04108374169856382</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>15.1211634156765</v>
+        <v>15.438552</v>
       </c>
       <c r="N14">
-        <v>15.1211634156765</v>
+        <v>46.315656</v>
       </c>
       <c r="O14">
-        <v>0.4836776239188549</v>
+        <v>0.4516083650784052</v>
       </c>
       <c r="P14">
-        <v>0.4836776239188549</v>
+        <v>0.4516083650784052</v>
       </c>
       <c r="Q14">
-        <v>23.77561605002311</v>
+        <v>24.835087727832</v>
       </c>
       <c r="R14">
-        <v>23.77561605002311</v>
+        <v>223.515789550488</v>
       </c>
       <c r="S14">
-        <v>0.04135098581477994</v>
+        <v>0.01855376141979191</v>
       </c>
       <c r="T14">
-        <v>0.04135098581477994</v>
+        <v>0.01855376141979191</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.57234039448144</v>
+        <v>1.608641</v>
       </c>
       <c r="H15">
-        <v>1.57234039448144</v>
+        <v>4.825923</v>
       </c>
       <c r="I15">
-        <v>0.08549286501977454</v>
+        <v>0.04108374169856382</v>
       </c>
       <c r="J15">
-        <v>0.08549286501977454</v>
+        <v>0.04108374169856382</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.62655495943328</v>
+        <v>1.632438333333333</v>
       </c>
       <c r="N15">
-        <v>1.62655495943328</v>
+        <v>4.897315</v>
       </c>
       <c r="O15">
-        <v>0.05202828752822662</v>
+        <v>0.04775206941738987</v>
       </c>
       <c r="P15">
-        <v>0.05202828752822662</v>
+        <v>0.04775206941738987</v>
       </c>
       <c r="Q15">
-        <v>2.557498066561066</v>
+        <v>2.626007232971666</v>
       </c>
       <c r="R15">
-        <v>2.557498066561066</v>
+        <v>23.634065096745</v>
       </c>
       <c r="S15">
-        <v>0.004448047362860698</v>
+        <v>0.001961833685515935</v>
       </c>
       <c r="T15">
-        <v>0.004448047362860698</v>
+        <v>0.001961833685515935</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.57234039448144</v>
+        <v>1.608641</v>
       </c>
       <c r="H16">
-        <v>1.57234039448144</v>
+        <v>4.825923</v>
       </c>
       <c r="I16">
-        <v>0.08549286501977454</v>
+        <v>0.04108374169856382</v>
       </c>
       <c r="J16">
-        <v>0.08549286501977454</v>
+        <v>0.04108374169856382</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>14.1641717130199</v>
+        <v>16.727748</v>
       </c>
       <c r="N16">
-        <v>14.1641717130199</v>
+        <v>50.183244</v>
       </c>
       <c r="O16">
-        <v>0.4530665221056751</v>
+        <v>0.4893199132744809</v>
       </c>
       <c r="P16">
-        <v>0.4530665221056751</v>
+        <v>0.4893199132744808</v>
       </c>
       <c r="Q16">
-        <v>22.27089933875256</v>
+        <v>26.908941270468</v>
       </c>
       <c r="R16">
-        <v>22.27089933875256</v>
+        <v>242.180471434212</v>
       </c>
       <c r="S16">
-        <v>0.03873395501935918</v>
+        <v>0.02010309292493243</v>
       </c>
       <c r="T16">
-        <v>0.03873395501935918</v>
+        <v>0.02010309292493242</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.57234039448144</v>
+        <v>1.608641</v>
       </c>
       <c r="H17">
-        <v>1.57234039448144</v>
+        <v>4.825923</v>
       </c>
       <c r="I17">
-        <v>0.08549286501977454</v>
+        <v>0.04108374169856382</v>
       </c>
       <c r="J17">
-        <v>0.08549286501977454</v>
+        <v>0.04108374169856382</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.351006245923866</v>
+        <v>0.3869703333333334</v>
       </c>
       <c r="N17">
-        <v>0.351006245923866</v>
+        <v>1.160911</v>
       </c>
       <c r="O17">
-        <v>0.01122756644724333</v>
+        <v>0.01131965222972415</v>
       </c>
       <c r="P17">
-        <v>0.01122756644724333</v>
+        <v>0.01131965222972415</v>
       </c>
       <c r="Q17">
-        <v>0.5519012991813808</v>
+        <v>0.6224963439836666</v>
       </c>
       <c r="R17">
-        <v>0.5519012991813808</v>
+        <v>5.602467095852999</v>
       </c>
       <c r="S17">
-        <v>0.0009598768227747233</v>
+        <v>0.0004650536683235589</v>
       </c>
       <c r="T17">
-        <v>0.0009598768227747233</v>
+        <v>0.0004650536683235589</v>
       </c>
     </row>
   </sheetData>
